--- a/biology/Médecine/1661_en_santé_et_médecine/1661_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1661_en_santé_et_médecine/1661_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1661_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1661_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1661 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1661_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1661_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7 février : Mazarin, malade, se fait transporter à Vincennes où est la cour[1].
-Octobre : Molière s’installe dans la maison neuve du médecin Louis-Henri d'Aquin, rue Saint-Thomas-du-Louvre, en face de son théâtre[2],[3].
-Le chimiste irlandais Robert Boyle isole le méthanol[4], composé toxique utilisé parfois comme adultérant d'autres alcools de consommation courante.
-Jan Swammerdam (1637-1680) entre à l'université de Leyde pour y étudier la médecine sous la direction notamment de Johannes Van Horne (1621-1670) et de Franciscus de le Boë (1614-1672)[5].
-Johann Joachim Becher (1635-1682) obtient son diplôme de médecin à l'Université de Mayence[6].
-Épidémie de « fièvre » à Londres, probablement la fièvre typhoïde[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>7 février : Mazarin, malade, se fait transporter à Vincennes où est la cour.
+Octobre : Molière s’installe dans la maison neuve du médecin Louis-Henri d'Aquin, rue Saint-Thomas-du-Louvre, en face de son théâtre,.
+Le chimiste irlandais Robert Boyle isole le méthanol, composé toxique utilisé parfois comme adultérant d'autres alcools de consommation courante.
+Jan Swammerdam (1637-1680) entre à l'université de Leyde pour y étudier la médecine sous la direction notamment de Johannes Van Horne (1621-1670) et de Franciscus de le Boë (1614-1672).
+Johann Joachim Becher (1635-1682) obtient son diplôme de médecin à l'Université de Mayence.
+Épidémie de « fièvre » à Londres, probablement la fièvre typhoïde.</t>
         </is>
       </c>
     </row>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1661_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1661_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,10 +560,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>John Evelyn publie un des premiers livres consacrés à la pollution : « Fumifugium (en) »[8].
-Malpighi présente ses études sur la structure des poumons de grenouilles dans « De pulmonibus observationes anatomicae »[9]. Il décrit les vaisseaux capillaires et la communication entre sang veineux et sang artériel[10].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>John Evelyn publie un des premiers livres consacrés à la pollution : « Fumifugium (en) ».
+Malpighi présente ses études sur la structure des poumons de grenouilles dans « De pulmonibus observationes anatomicae ». Il décrit les vaisseaux capillaires et la communication entre sang veineux et sang artériel.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1661_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1661_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>11 février : Philippe Hecquet (mort en 1737), médecin français.
-3 mai : Antonio Vallisneri (mort en 1730), médecin et naturaliste italien[11].</t>
+3 mai : Antonio Vallisneri (mort en 1730), médecin et naturaliste italien.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1661_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1661_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Date indéterminée
 Claude Quillet (né en 1602), médecin et poète français.
